--- a/data/pca/factorExposure/factorExposure_2012-12-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-12-03.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0009241756221539872</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002302460157363169</v>
+      </c>
+      <c r="C2">
+        <v>-0.03113039064372131</v>
+      </c>
+      <c r="D2">
+        <v>0.005000329041459067</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0005188970400746448</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006666124320923921</v>
+      </c>
+      <c r="C4">
+        <v>-0.08360672893802175</v>
+      </c>
+      <c r="D4">
+        <v>0.07502455730572356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-6.151319442304646e-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01423462444243864</v>
+      </c>
+      <c r="C6">
+        <v>-0.1148746860133824</v>
+      </c>
+      <c r="D6">
+        <v>0.03314836566493103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001869275195024129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004637660818315634</v>
+      </c>
+      <c r="C7">
+        <v>-0.05789145385713738</v>
+      </c>
+      <c r="D7">
+        <v>0.03084071421544247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-7.189511021087903e-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005519066901880431</v>
+      </c>
+      <c r="C8">
+        <v>-0.03739942562264792</v>
+      </c>
+      <c r="D8">
+        <v>0.04199150205505167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003733062330794691</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.00468392760495814</v>
+      </c>
+      <c r="C9">
+        <v>-0.07074330756741948</v>
+      </c>
+      <c r="D9">
+        <v>0.07301349653362654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.001910077677776033</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.00544294129752348</v>
+      </c>
+      <c r="C10">
+        <v>-0.05800072825829717</v>
+      </c>
+      <c r="D10">
+        <v>-0.1969499937478464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.002720182325260948</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005705342530087634</v>
+      </c>
+      <c r="C11">
+        <v>-0.0798162426102291</v>
+      </c>
+      <c r="D11">
+        <v>0.06020858747327247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-7.837994289154931e-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004125222344132192</v>
+      </c>
+      <c r="C12">
+        <v>-0.06420700715422059</v>
+      </c>
+      <c r="D12">
+        <v>0.04664914270894135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.000886409860058253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.00883773798513888</v>
+      </c>
+      <c r="C13">
+        <v>-0.06833697157093956</v>
+      </c>
+      <c r="D13">
+        <v>0.05790489847273449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.001014098202498096</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001323010580207515</v>
+      </c>
+      <c r="C14">
+        <v>-0.04450496562539181</v>
+      </c>
+      <c r="D14">
+        <v>0.005096185854088588</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0007251677790445654</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005899776413351409</v>
+      </c>
+      <c r="C15">
+        <v>-0.0417855817713261</v>
+      </c>
+      <c r="D15">
+        <v>0.03046074896948951</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0008028292395591729</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005004243746052409</v>
+      </c>
+      <c r="C16">
+        <v>-0.06461322073983204</v>
+      </c>
+      <c r="D16">
+        <v>0.05137942649862782</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>5.692200213865389e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008636328188069559</v>
+      </c>
+      <c r="C20">
+        <v>-0.0653832819806579</v>
+      </c>
+      <c r="D20">
+        <v>0.04313936938670891</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005621429840529661</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.00977765317862893</v>
+      </c>
+      <c r="C21">
+        <v>-0.02152068262636147</v>
+      </c>
+      <c r="D21">
+        <v>0.0389150941639208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01697888668499051</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006523840248613741</v>
+      </c>
+      <c r="C22">
+        <v>-0.09416288708590557</v>
+      </c>
+      <c r="D22">
+        <v>0.1172392433740564</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01732347434582166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006348869478883593</v>
+      </c>
+      <c r="C23">
+        <v>-0.09498081392817992</v>
+      </c>
+      <c r="D23">
+        <v>0.117258403384529</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.001664026663977162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005518257126286321</v>
+      </c>
+      <c r="C24">
+        <v>-0.07694089983780979</v>
+      </c>
+      <c r="D24">
+        <v>0.06510853483848295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.004473866776952774</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002979904200124098</v>
+      </c>
+      <c r="C25">
+        <v>-0.07809716472901188</v>
+      </c>
+      <c r="D25">
+        <v>0.06584792153067827</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.003814359368244882</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003658116089368857</v>
+      </c>
+      <c r="C26">
+        <v>-0.04100528585993665</v>
+      </c>
+      <c r="D26">
+        <v>0.0216284931825303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.005128958311043845</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0008138804189179338</v>
+      </c>
+      <c r="C28">
+        <v>-0.1067752103387161</v>
+      </c>
+      <c r="D28">
+        <v>-0.3191657889145696</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001570170953316956</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003036350879334227</v>
+      </c>
+      <c r="C29">
+        <v>-0.04983512245124841</v>
+      </c>
+      <c r="D29">
+        <v>0.00888558896373825</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.003058046193943769</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009763334523898607</v>
+      </c>
+      <c r="C30">
+        <v>-0.1421931104592997</v>
+      </c>
+      <c r="D30">
+        <v>0.1031490484605234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0005712474749637262</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006185524796640163</v>
+      </c>
+      <c r="C31">
+        <v>-0.04459377167545116</v>
+      </c>
+      <c r="D31">
+        <v>0.0289396253085776</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0005875649830492651</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004248000046621419</v>
+      </c>
+      <c r="C32">
+        <v>-0.03846469159278029</v>
+      </c>
+      <c r="D32">
+        <v>0.02374208060610392</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.001816868602749418</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008613695241226864</v>
+      </c>
+      <c r="C33">
+        <v>-0.08680797213596557</v>
+      </c>
+      <c r="D33">
+        <v>0.06481024245178474</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004630355153981152</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004035307523578065</v>
+      </c>
+      <c r="C34">
+        <v>-0.05732655716994299</v>
+      </c>
+      <c r="D34">
+        <v>0.0536392575976012</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.000809628113540335</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005004623767263605</v>
+      </c>
+      <c r="C35">
+        <v>-0.04051573162261376</v>
+      </c>
+      <c r="D35">
+        <v>0.01850455530874701</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.003594795307079727</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001012673077382832</v>
+      </c>
+      <c r="C36">
+        <v>-0.02484445624356447</v>
+      </c>
+      <c r="D36">
+        <v>0.02141716508427419</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.001848044780010432</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009217432170035485</v>
+      </c>
+      <c r="C38">
+        <v>-0.03425089714495155</v>
+      </c>
+      <c r="D38">
+        <v>0.0149855083321106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01299319949506591</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0008099467868179695</v>
+      </c>
+      <c r="C39">
+        <v>-0.1155773252730078</v>
+      </c>
+      <c r="D39">
+        <v>0.07562181998036016</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009897167304727773</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002653194262202251</v>
+      </c>
+      <c r="C40">
+        <v>-0.09021829062280598</v>
+      </c>
+      <c r="D40">
+        <v>0.01444433189326186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0008957805136326042</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007239142962741866</v>
+      </c>
+      <c r="C41">
+        <v>-0.03801436783442459</v>
+      </c>
+      <c r="D41">
+        <v>0.03830208827707783</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003280833598099729</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003813335486249256</v>
+      </c>
+      <c r="C43">
+        <v>-0.05337189305035292</v>
+      </c>
+      <c r="D43">
+        <v>0.02414889733529204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.005805953495314295</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003119803154026147</v>
+      </c>
+      <c r="C44">
+        <v>-0.1090418711993392</v>
+      </c>
+      <c r="D44">
+        <v>0.06873742623656671</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.001272641010873133</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.001982427665109216</v>
+      </c>
+      <c r="C46">
+        <v>-0.03312538793575465</v>
+      </c>
+      <c r="D46">
+        <v>0.03557844000458017</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0005454241404422849</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002550789976153993</v>
+      </c>
+      <c r="C47">
+        <v>-0.03716993892502949</v>
+      </c>
+      <c r="D47">
+        <v>0.02242137260493558</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.004273564722349967</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.00671886935974545</v>
+      </c>
+      <c r="C48">
+        <v>-0.03108577112884798</v>
+      </c>
+      <c r="D48">
+        <v>0.03238160629465447</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01145991478416319</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01586476556437166</v>
+      </c>
+      <c r="C49">
+        <v>-0.184732320749986</v>
+      </c>
+      <c r="D49">
+        <v>0.01724791686194967</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001260220542677914</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003616296851487336</v>
+      </c>
+      <c r="C50">
+        <v>-0.04369546747574429</v>
+      </c>
+      <c r="D50">
+        <v>0.03695162417570999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0008062754789779205</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004570515216761921</v>
+      </c>
+      <c r="C51">
+        <v>-0.02571786230270249</v>
+      </c>
+      <c r="D51">
+        <v>0.02028748457731676</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.0006778882668962943</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02114914983740064</v>
+      </c>
+      <c r="C53">
+        <v>-0.1698937635551869</v>
+      </c>
+      <c r="D53">
+        <v>0.02615833794952151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001449278373139436</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.009143101361236848</v>
+      </c>
+      <c r="C54">
+        <v>-0.05452396508369416</v>
+      </c>
+      <c r="D54">
+        <v>0.04419893945544107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.003863838023390319</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009683621682253276</v>
+      </c>
+      <c r="C55">
+        <v>-0.1102851330408465</v>
+      </c>
+      <c r="D55">
+        <v>0.03812406701554488</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.001451431045545893</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02018726801954157</v>
+      </c>
+      <c r="C56">
+        <v>-0.1743586639336431</v>
+      </c>
+      <c r="D56">
+        <v>0.01804507025759822</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.007887727054492366</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01935687774863144</v>
+      </c>
+      <c r="C58">
+        <v>-0.1097832550291494</v>
+      </c>
+      <c r="D58">
+        <v>0.06124230962701453</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.007451749953214143</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009892290446162182</v>
+      </c>
+      <c r="C59">
+        <v>-0.1647033324282857</v>
+      </c>
+      <c r="D59">
+        <v>-0.3289306042685166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.004044057407279079</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02471478414199951</v>
+      </c>
+      <c r="C60">
+        <v>-0.2226083266982032</v>
+      </c>
+      <c r="D60">
+        <v>0.03174767148812491</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01451342154859719</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.00177323529044434</v>
+      </c>
+      <c r="C61">
+        <v>-0.09447879851513033</v>
+      </c>
+      <c r="D61">
+        <v>0.05614385405039971</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1624485814109631</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1464817439256084</v>
+      </c>
+      <c r="C62">
+        <v>-0.09275150232498543</v>
+      </c>
+      <c r="D62">
+        <v>0.03946642326283097</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0005705520106256912</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006345459706509366</v>
+      </c>
+      <c r="C63">
+        <v>-0.05509782301090415</v>
+      </c>
+      <c r="D63">
+        <v>0.02661352287220573</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.001022973258432137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01473349343151342</v>
+      </c>
+      <c r="C64">
+        <v>-0.1055365791351692</v>
+      </c>
+      <c r="D64">
+        <v>0.05933484150412693</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.002403624353624569</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01794104821801783</v>
+      </c>
+      <c r="C65">
+        <v>-0.1249095674608817</v>
+      </c>
+      <c r="D65">
+        <v>0.02391455787916977</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.007415732072822864</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01316017784344829</v>
+      </c>
+      <c r="C66">
+        <v>-0.1594599445041016</v>
+      </c>
+      <c r="D66">
+        <v>0.1108469360914856</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003459514794614622</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01558522715488615</v>
+      </c>
+      <c r="C67">
+        <v>-0.06541854117174534</v>
+      </c>
+      <c r="D67">
+        <v>0.02612953143630416</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.005815284620790608</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0009274915678029589</v>
+      </c>
+      <c r="C68">
+        <v>-0.08680841761534527</v>
+      </c>
+      <c r="D68">
+        <v>-0.2612665513941275</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002044974139821814</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006011068730132728</v>
+      </c>
+      <c r="C69">
+        <v>-0.05029449496456855</v>
+      </c>
+      <c r="D69">
+        <v>0.03820878434817376</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0001797003131563132</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001810012493373716</v>
+      </c>
+      <c r="C70">
+        <v>-0.002774019749972561</v>
+      </c>
+      <c r="D70">
+        <v>0.0009629888607579668</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0003536014451915297</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006016525474764499</v>
+      </c>
+      <c r="C71">
+        <v>-0.09439694445219673</v>
+      </c>
+      <c r="D71">
+        <v>-0.305067060219907</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.00364513270184583</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01630257423937882</v>
+      </c>
+      <c r="C72">
+        <v>-0.1531854783661863</v>
+      </c>
+      <c r="D72">
+        <v>0.01484045838040029</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01194616576754653</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03124759378399325</v>
+      </c>
+      <c r="C73">
+        <v>-0.2787269937316558</v>
+      </c>
+      <c r="D73">
+        <v>0.05567292715928975</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.005542615751894676</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002000574206263552</v>
+      </c>
+      <c r="C74">
+        <v>-0.1044524760479248</v>
+      </c>
+      <c r="D74">
+        <v>0.03388837916828854</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.003184444443735245</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01122701883827524</v>
+      </c>
+      <c r="C75">
+        <v>-0.1254341378947223</v>
+      </c>
+      <c r="D75">
+        <v>0.02277585923903502</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.007803489624792042</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02214436924531498</v>
+      </c>
+      <c r="C76">
+        <v>-0.1493683828963859</v>
+      </c>
+      <c r="D76">
+        <v>0.05759180608812828</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.00320245338571813</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02274848203659233</v>
+      </c>
+      <c r="C77">
+        <v>-0.1202413076416078</v>
+      </c>
+      <c r="D77">
+        <v>0.08142261478961155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.001005586534739465</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01494951549632591</v>
+      </c>
+      <c r="C78">
+        <v>-0.09618655029387055</v>
+      </c>
+      <c r="D78">
+        <v>0.07192189165212173</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02343726094543798</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03825939403435161</v>
+      </c>
+      <c r="C79">
+        <v>-0.1576825267983421</v>
+      </c>
+      <c r="D79">
+        <v>0.02991127355845686</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.006044767197210311</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01018308763582807</v>
+      </c>
+      <c r="C80">
+        <v>-0.03961105899629738</v>
+      </c>
+      <c r="D80">
+        <v>0.02920196924116227</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0005477126450501098</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01598834675444883</v>
+      </c>
+      <c r="C81">
+        <v>-0.1285228695431248</v>
+      </c>
+      <c r="D81">
+        <v>0.04104657539080353</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.003676495870323395</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.02016600432080786</v>
+      </c>
+      <c r="C82">
+        <v>-0.141968872516857</v>
+      </c>
+      <c r="D82">
+        <v>0.03493809908883061</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008747550267220537</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01008253076898088</v>
+      </c>
+      <c r="C83">
+        <v>-0.05524743625637183</v>
+      </c>
+      <c r="D83">
+        <v>0.05376909959747139</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.011860210789391</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01141449056959127</v>
+      </c>
+      <c r="C84">
+        <v>-0.03664349432341128</v>
+      </c>
+      <c r="D84">
+        <v>-0.004532183762985482</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01332898291799035</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02895881103198901</v>
+      </c>
+      <c r="C85">
+        <v>-0.1258676527594212</v>
+      </c>
+      <c r="D85">
+        <v>0.04284781521083549</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.002240209696970031</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005049083699969667</v>
+      </c>
+      <c r="C86">
+        <v>-0.04968167185661906</v>
+      </c>
+      <c r="D86">
+        <v>0.03017594211019944</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.003096959135569715</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01071993891039577</v>
+      </c>
+      <c r="C87">
+        <v>-0.128747654971537</v>
+      </c>
+      <c r="D87">
+        <v>0.07147143107541511</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01137842672161907</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002953370470452565</v>
+      </c>
+      <c r="C88">
+        <v>-0.06482049370988245</v>
+      </c>
+      <c r="D88">
+        <v>0.0189513345133581</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01388591868825917</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.00141685825626047</v>
+      </c>
+      <c r="C89">
+        <v>-0.1466168601513677</v>
+      </c>
+      <c r="D89">
+        <v>-0.329915267576011</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.001057586605091492</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006861970791311306</v>
+      </c>
+      <c r="C90">
+        <v>-0.120760855534387</v>
+      </c>
+      <c r="D90">
+        <v>-0.3178349957964739</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0005354322887951788</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01036004853525777</v>
+      </c>
+      <c r="C91">
+        <v>-0.1003780190446344</v>
+      </c>
+      <c r="D91">
+        <v>0.02214559211151527</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.008913295465559806</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001135723190150446</v>
+      </c>
+      <c r="C92">
+        <v>-0.1363064389075896</v>
+      </c>
+      <c r="D92">
+        <v>-0.3242286983205818</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0006013541007481985</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005050142299943664</v>
+      </c>
+      <c r="C93">
+        <v>-0.1057191085323098</v>
+      </c>
+      <c r="D93">
+        <v>-0.301530221139119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.00255876187372257</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02248414724096545</v>
+      </c>
+      <c r="C94">
+        <v>-0.1466707942808949</v>
+      </c>
+      <c r="D94">
+        <v>0.05061757025731561</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006055164135061511</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01624136536045351</v>
+      </c>
+      <c r="C95">
+        <v>-0.1250114020925829</v>
+      </c>
+      <c r="D95">
+        <v>0.06003389460756709</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.0004519824898799935</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03682592236049472</v>
+      </c>
+      <c r="C97">
+        <v>-0.2130208240014224</v>
+      </c>
+      <c r="D97">
+        <v>-0.007783140527890127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.003516002602419404</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03736866578722151</v>
+      </c>
+      <c r="C98">
+        <v>-0.2496395828221236</v>
+      </c>
+      <c r="D98">
+        <v>0.04640152033429674</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9849659661063968</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9818072486372922</v>
+      </c>
+      <c r="C99">
+        <v>0.1179074889463044</v>
+      </c>
+      <c r="D99">
+        <v>-0.02611189155310126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001493700200278905</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003069276625969035</v>
+      </c>
+      <c r="C101">
+        <v>-0.04994798005959766</v>
+      </c>
+      <c r="D101">
+        <v>0.009254755980557026</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
